--- a/src_files/data_files/unitdata_TYNDP-2024.xlsx
+++ b/src_files/data_files/unitdata_TYNDP-2024.xlsx
@@ -1,23 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vttgroup-my.sharepoint.com/personal/eric_harrison_vtt_fi1/Documents/oma_tutkimus_backupit/balticseah2_backups/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vttgroup-my.sharepoint.com/personal/eric_harrison_vtt_fi1/Documents/oma_tutkimus_backupit/balticseah2_backups/MMStandardOutputFile_NT2030_Plexos_CY2009_2.5_v40.xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="11_6A9153A8D3005D36AF5A2211595ED87656CCD8D1" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C6B44275-F14C-46CA-B7A1-47E834E5E0A7}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="11_52B913A5D3705709F71A3211595ED87656CC7950" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0A6E9151-F92C-4A69-96AE-798DFDF40570}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$1</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -36,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="887" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="890" uniqueCount="72">
   <si>
     <t>Country</t>
   </si>
@@ -53,136 +50,166 @@
     <t>capacity_output1</t>
   </si>
   <si>
+    <t>node_suffix_output2</t>
+  </si>
+  <si>
+    <t>capacity_input1</t>
+  </si>
+  <si>
+    <t>Note</t>
+  </si>
+  <si>
+    <t>BE00</t>
+  </si>
+  <si>
+    <t>Nuclear</t>
+  </si>
+  <si>
+    <t>National Trends</t>
+  </si>
+  <si>
+    <t>Gas conventional old 2</t>
+  </si>
+  <si>
+    <t>Gas CCGT new</t>
+  </si>
+  <si>
+    <t>Gas OCGT new</t>
+  </si>
+  <si>
+    <t>Gas CCGT present 2</t>
+  </si>
+  <si>
+    <t>Heavy oil old 1</t>
+  </si>
+  <si>
+    <t>Run-of-River</t>
+  </si>
+  <si>
+    <t>Pump Storage - Closed Loop (turbine)</t>
+  </si>
+  <si>
+    <t>Pump Storage - Closed Loop (pump)</t>
+  </si>
+  <si>
+    <t>Wind Onshore</t>
+  </si>
+  <si>
+    <t>Wind Offshore</t>
+  </si>
+  <si>
+    <t>Solar (Photovoltaic)</t>
+  </si>
+  <si>
+    <t>Others renewable</t>
+  </si>
+  <si>
+    <t>Others non-renewable</t>
+  </si>
+  <si>
+    <t>Hard Coal biofuel</t>
+  </si>
+  <si>
+    <t>Battery Storage discharge (gen.)</t>
+  </si>
+  <si>
+    <t>Battery Storage charge (load)</t>
+  </si>
+  <si>
+    <t>Electrolyser (load)</t>
+  </si>
+  <si>
+    <t>Demand Side Response Explicit</t>
+  </si>
+  <si>
+    <t>Demand Side Response Implicit</t>
+  </si>
+  <si>
+    <t>DE00</t>
+  </si>
+  <si>
+    <t>Gas conventional old 1</t>
+  </si>
+  <si>
+    <t>Gas CCGT old 1</t>
+  </si>
+  <si>
+    <t>Gas CCGT old 2</t>
+  </si>
+  <si>
+    <t>Gas OCGT old</t>
+  </si>
+  <si>
+    <t>Gas CCGT present 1</t>
+  </si>
+  <si>
+    <t>Light oil</t>
+  </si>
+  <si>
+    <t>Reservoir</t>
+  </si>
+  <si>
+    <t>Pump Storage - Open Loop (turbine)</t>
+  </si>
+  <si>
+    <t>Pump Storage - Open Loop (pump)</t>
+  </si>
+  <si>
+    <t>Hydrogen CCGT</t>
+  </si>
+  <si>
+    <t>DKE1</t>
+  </si>
+  <si>
+    <t>Gas biofuel</t>
+  </si>
+  <si>
+    <t>DKW1</t>
+  </si>
+  <si>
+    <t>EE00</t>
+  </si>
+  <si>
+    <t>Oil shale old</t>
+  </si>
+  <si>
+    <t>Oil shale biofuel</t>
+  </si>
+  <si>
+    <t>ES00</t>
+  </si>
+  <si>
+    <t>Solar (Thermal)</t>
+  </si>
+  <si>
     <t>FI00</t>
   </si>
   <si>
-    <t>Nuclear</t>
-  </si>
-  <si>
-    <t>National Trends</t>
-  </si>
-  <si>
-    <t>Gas CCGT old 2</t>
-  </si>
-  <si>
-    <t>Gas CCGT new</t>
-  </si>
-  <si>
-    <t>Gas OCGT old</t>
-  </si>
-  <si>
-    <t>Gas OCGT new</t>
-  </si>
-  <si>
-    <t>Gas CCGT present 1</t>
-  </si>
-  <si>
-    <t>Reservoir</t>
-  </si>
-  <si>
-    <t>Wind Onshore</t>
-  </si>
-  <si>
-    <t>Wind Offshore</t>
-  </si>
-  <si>
-    <t>Solar (Photovoltaic)</t>
-  </si>
-  <si>
-    <t>Others renewable</t>
-  </si>
-  <si>
-    <t>Others non-renewable</t>
-  </si>
-  <si>
-    <t>Hard Coal biofuel</t>
-  </si>
-  <si>
-    <t>Battery Storage discharge (gen.)</t>
-  </si>
-  <si>
-    <t>Battery Storage charge (load)</t>
-  </si>
-  <si>
-    <t>Electrolyser (load)</t>
-  </si>
-  <si>
-    <t>Demand Side Response Explicit</t>
-  </si>
-  <si>
-    <t>Demand Side Response Implicit</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> SE01</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> SE02</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> SE03</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> SE04</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> NOS0</t>
-  </si>
-  <si>
-    <t>Run-of-River</t>
-  </si>
-  <si>
-    <t>Pump Storage - Open Loop (turbine)</t>
-  </si>
-  <si>
-    <t>Pump Storage - Open Loop (pump)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> NOM1</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> NON1</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> DE00</t>
-  </si>
-  <si>
-    <t>Gas conventional old 1</t>
-  </si>
-  <si>
-    <t>Gas conventional old 2</t>
-  </si>
-  <si>
-    <t>Gas CCGT old 1</t>
-  </si>
-  <si>
-    <t>Gas CCGT present 2</t>
-  </si>
-  <si>
-    <t>Light oil</t>
-  </si>
-  <si>
-    <t>Pump Storage - Closed Loop (turbine)</t>
-  </si>
-  <si>
-    <t>Pump Storage - Closed Loop (pump)</t>
-  </si>
-  <si>
-    <t>Hydrogen CCGT</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> DKE1</t>
-  </si>
-  <si>
-    <t>Heavy oil old 1</t>
-  </si>
-  <si>
-    <t>Gas biofuel</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> DKW1</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> PL00</t>
+    <t>FR00</t>
+  </si>
+  <si>
+    <t>LT00</t>
+  </si>
+  <si>
+    <t>LV00</t>
+  </si>
+  <si>
+    <t>Pondage</t>
+  </si>
+  <si>
+    <t>NL00</t>
+  </si>
+  <si>
+    <t>NOM1</t>
+  </si>
+  <si>
+    <t>NON1</t>
+  </si>
+  <si>
+    <t>NOS0</t>
+  </si>
+  <si>
+    <t>PL00</t>
   </si>
   <si>
     <t>Lignite old 1</t>
@@ -200,37 +227,19 @@
     <t>Hard coal new</t>
   </si>
   <si>
-    <t xml:space="preserve"> EE00</t>
-  </si>
-  <si>
-    <t>Oil shale old</t>
-  </si>
-  <si>
-    <t>Oil shale biofuel</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> LV00</t>
-  </si>
-  <si>
-    <t>Pondage</t>
-  </si>
-  <si>
-    <t>Solar (Thermal)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> LT00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> NL00</t>
-  </si>
-  <si>
-    <t>FR00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> BE00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> UK00</t>
+    <t>SE01</t>
+  </si>
+  <si>
+    <t>SE02</t>
+  </si>
+  <si>
+    <t>SE03</t>
+  </si>
+  <si>
+    <t>SE04</t>
+  </si>
+  <si>
+    <t>UK00</t>
   </si>
   <si>
     <t>Gas CCGT CCS</t>
@@ -240,9 +249,6 @@
   </si>
   <si>
     <t>Lignite biofuel</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ES00</t>
   </si>
 </sst>
 </file>
@@ -286,9 +292,7 @@
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
+      <top/>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -307,7 +311,50 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -318,6 +365,27 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0AA51971-E4A6-4CB2-819C-489FDB472AEE}" name="Table1" displayName="Table1" ref="A1:H295" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="1" tableBorderDxfId="2">
+  <autoFilter ref="A1:H295" xr:uid="{0AA51971-E4A6-4CB2-819C-489FDB472AEE}"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{CB24FD4E-C9A6-431C-9BAE-D980FCC8D4B4}" name="Country"/>
+    <tableColumn id="2" xr3:uid="{B5F94443-4862-4CC7-9D2E-6D5F99A454DD}" name="Generator_ID"/>
+    <tableColumn id="3" xr3:uid="{699F5221-8560-4E44-9FDC-F43667B998F2}" name="Scenario"/>
+    <tableColumn id="4" xr3:uid="{3EEE2709-6269-4000-BC7A-5EE6770F7E9C}" name="Year"/>
+    <tableColumn id="5" xr3:uid="{475D04F0-E376-442C-970C-25AD2FCB26F8}" name="capacity_output1"/>
+    <tableColumn id="6" xr3:uid="{52582EFA-0A5F-483F-81A8-0B17971E0F2B}" name="node_suffix_output2"/>
+    <tableColumn id="7" xr3:uid="{57429923-018D-4EEB-A5E0-0B885D7C8E35}" name="capacity_input1"/>
+    <tableColumn id="8" xr3:uid="{C6C57FDF-762C-426D-A6C8-CB218A46CFBC}" name="Note"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -605,22 +673,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E295"/>
+  <dimension ref="A1:H295"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.140625" customWidth="1"/>
     <col min="2" max="2" width="34.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.140625" customWidth="1"/>
+    <col min="5" max="5" width="18.28515625" customWidth="1"/>
+    <col min="6" max="6" width="21.7109375" customWidth="1"/>
+    <col min="7" max="7" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -636,4697 +706,4706 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D2">
         <v>2030</v>
       </c>
       <c r="E2">
-        <v>4394</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>2077</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3">
+        <v>2030</v>
+      </c>
+      <c r="E3">
+        <v>870.99800000000005</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>8</v>
       </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3">
-        <v>2030</v>
-      </c>
-      <c r="E3">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D4">
         <v>2030</v>
       </c>
       <c r="E4">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1775</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D5">
         <v>2030</v>
       </c>
       <c r="E5">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D6">
         <v>2030</v>
       </c>
       <c r="E6">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1732.1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D7">
         <v>2030</v>
       </c>
       <c r="E7">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D8">
         <v>2030</v>
       </c>
       <c r="E8">
-        <v>3236.6080000000002</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+        <v>148.202</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D9">
         <v>2030</v>
       </c>
       <c r="E9">
-        <v>25992.471000000001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1305</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D10">
         <v>2030</v>
       </c>
       <c r="E10">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1226.76</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D11">
         <v>2030</v>
       </c>
       <c r="E11">
-        <v>10695.187</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+        <v>5248</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C12" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D12">
         <v>2030</v>
       </c>
       <c r="E12">
-        <v>2624.82</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+        <v>5760</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C13" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D13">
         <v>2030</v>
       </c>
       <c r="E13">
-        <v>390.5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+        <v>13610</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B14" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C14" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D14">
         <v>2030</v>
       </c>
       <c r="E14">
-        <v>1195.998</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+        <v>614.625</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B15" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C15" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D15">
         <v>2030</v>
       </c>
       <c r="E15">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B16" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D16">
         <v>2030</v>
       </c>
       <c r="E16">
-        <v>1000</v>
+        <v>354.4</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B17" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D17">
         <v>2030</v>
       </c>
       <c r="E17">
-        <v>8727.2729999999992</v>
+        <v>594.35799999999995</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B18" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D18">
         <v>2030</v>
       </c>
       <c r="E18">
-        <v>4640.8320000000003</v>
+        <v>594.35799999999995</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C19" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D19">
         <v>2030</v>
       </c>
       <c r="E19">
-        <v>319.77499999999998</v>
+        <v>373</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="B20" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="C20" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D20">
         <v>2030</v>
       </c>
       <c r="E20">
-        <v>97</v>
+        <v>2829.6610000000001</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="B21" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="C21" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D21">
         <v>2030</v>
       </c>
       <c r="E21">
-        <v>5444</v>
+        <v>41.613999999999997</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B22" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C22" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D22">
         <v>2030</v>
       </c>
       <c r="E22">
-        <v>3580.5430000000001</v>
+        <v>109.68</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B23" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C23" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D23">
         <v>2030</v>
       </c>
       <c r="E23">
-        <v>198.7</v>
+        <v>945.08699999999999</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B24" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="C24" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D24">
         <v>2030</v>
       </c>
       <c r="E24">
-        <v>11.542999999999999</v>
+        <v>53.6</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B25" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="C25" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D25">
         <v>2030</v>
       </c>
       <c r="E25">
-        <v>11.542999999999999</v>
+        <v>460.41399999999999</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B26" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="C26" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D26">
         <v>2030</v>
       </c>
       <c r="E26">
-        <v>6451.3090000000002</v>
+        <v>1620.404</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B27" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="C27" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D27">
         <v>2030</v>
       </c>
       <c r="E27">
-        <v>214.2</v>
+        <v>43.298999999999999</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B28" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="C28" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D28">
         <v>2030</v>
       </c>
       <c r="E28">
-        <v>22.568000000000001</v>
+        <v>2355.79</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B29" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="C29" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D29">
         <v>2030</v>
       </c>
       <c r="E29">
-        <v>7650.1</v>
+        <v>1658.6</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B30" t="s">
         <v>14</v>
       </c>
       <c r="C30" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D30">
         <v>2030</v>
       </c>
       <c r="E30">
-        <v>8280.4480000000003</v>
+        <v>18452.862000000001</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="C31" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D31">
         <v>2030</v>
       </c>
       <c r="E31">
-        <v>333.88600000000002</v>
+        <v>1585.3389999999999</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C32" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D32">
         <v>2030</v>
       </c>
       <c r="E32">
-        <v>743.57</v>
+        <v>3933.9</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B33" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="C33" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D33">
         <v>2030</v>
       </c>
       <c r="E33">
-        <v>11.13</v>
+        <v>819</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B34" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="C34" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D34">
         <v>2030</v>
       </c>
       <c r="E34">
-        <v>11.13</v>
+        <v>2144.1</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B35" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="C35" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D35">
         <v>2030</v>
       </c>
       <c r="E35">
-        <v>40.798000000000002</v>
+        <v>1861</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B36" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C36" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D36">
         <v>2030</v>
       </c>
       <c r="E36">
-        <v>323.39999999999998</v>
+        <v>7009.84</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B37" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C37" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D37">
         <v>2030</v>
       </c>
       <c r="E37">
-        <v>45.892000000000003</v>
+        <v>7166.6</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B38" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="C38" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D38">
         <v>2030</v>
       </c>
       <c r="E38">
-        <v>6883</v>
+        <v>115000.7</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B39" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C39" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D39">
         <v>2030</v>
       </c>
       <c r="E39">
-        <v>54</v>
+        <v>30521.3</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B40" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C40" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D40">
         <v>2030</v>
       </c>
       <c r="E40">
-        <v>2286</v>
+        <v>215002</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B41" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C41" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D41">
         <v>2030</v>
       </c>
       <c r="E41">
-        <v>3868.223</v>
+        <v>13067.585999999999</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B42" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C42" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D42">
         <v>2030</v>
       </c>
       <c r="E42">
-        <v>4851.692</v>
+        <v>7280.02</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B43" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="C43" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D43">
         <v>2030</v>
       </c>
       <c r="E43">
-        <v>2818.0549999999998</v>
+        <v>3200.4</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B44" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C44" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D44">
         <v>2030</v>
       </c>
       <c r="E44">
-        <v>161.72300000000001</v>
+        <v>3200.4</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
+        <v>30</v>
+      </c>
+      <c r="B45" t="s">
         <v>27</v>
       </c>
-      <c r="B45" t="s">
-        <v>21</v>
-      </c>
       <c r="C45" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D45">
         <v>2030</v>
       </c>
       <c r="E45">
-        <v>161.72300000000001</v>
+        <v>12789</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B46" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="C46" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D46">
         <v>2030</v>
       </c>
       <c r="E46">
-        <v>133.96700000000001</v>
+        <v>8826.1139999999996</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B47" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C47" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D47">
         <v>2030</v>
       </c>
       <c r="E47">
-        <v>936.6</v>
+        <v>23799.8</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B48" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C48" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D48">
         <v>2030</v>
       </c>
       <c r="E48">
-        <v>31.670999999999999</v>
+        <v>29901.759999999998</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="B49" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="C49" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D49">
         <v>2030</v>
       </c>
       <c r="E49">
-        <v>237.1</v>
+        <v>57.752000000000002</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="B50" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="C50" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D50">
         <v>2030</v>
       </c>
       <c r="E50">
-        <v>2222.9389999999999</v>
+        <v>103.084</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="B51" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C51" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D51">
         <v>2030</v>
       </c>
       <c r="E51">
-        <v>600</v>
+        <v>71.959999999999994</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="B52" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="C52" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D52">
         <v>2030</v>
       </c>
       <c r="E52">
-        <v>2116.1889999999999</v>
+        <v>531</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="B53" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C53" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D53">
         <v>2030</v>
       </c>
       <c r="E53">
-        <v>698.09</v>
+        <v>65.099999999999994</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="B54" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C54" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D54">
         <v>2030</v>
       </c>
       <c r="E54">
-        <v>70.540000000000006</v>
+        <v>1155.384</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="B55" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C55" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D55">
         <v>2030</v>
       </c>
       <c r="E55">
-        <v>70.540000000000006</v>
+        <v>5528.2</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="B56" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C56" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D56">
         <v>2030</v>
       </c>
       <c r="E56">
-        <v>40.591999999999999</v>
+        <v>4884.9399999999996</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="B57" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C57" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D57">
         <v>2030</v>
       </c>
       <c r="E57">
-        <v>264.60000000000002</v>
+        <v>1165.52</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="B58" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="C58" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D58">
         <v>2030</v>
       </c>
       <c r="E58">
-        <v>129.38999999999999</v>
+        <v>54.555</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="B59" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C59" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D59">
         <v>2030</v>
       </c>
       <c r="E59">
-        <v>5557.049</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
+        <v>41</v>
+      </c>
+      <c r="B60" t="s">
         <v>29</v>
       </c>
-      <c r="B60" t="s">
-        <v>13</v>
-      </c>
       <c r="C60" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D60">
         <v>2030</v>
       </c>
       <c r="E60">
-        <v>19689.398000000001</v>
+        <v>893.73099999999999</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="B61" t="s">
         <v>31</v>
       </c>
       <c r="C61" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D61">
         <v>2030</v>
       </c>
       <c r="E61">
-        <v>649.5</v>
+        <v>111.706</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="B62" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="C62" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D62">
         <v>2030</v>
       </c>
       <c r="E62">
-        <v>682.00800000000004</v>
+        <v>375.42</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="B63" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="C63" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D63">
         <v>2030</v>
       </c>
       <c r="E63">
-        <v>2240.56</v>
+        <v>47.2</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="B64" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="C64" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D64">
         <v>2030</v>
       </c>
       <c r="E64">
-        <v>3003.5</v>
+        <v>54.3</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="B65" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="C65" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D65">
         <v>2030</v>
       </c>
       <c r="E65">
-        <v>3000</v>
+        <v>448.18200000000002</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="B66" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C66" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D66">
         <v>2030</v>
       </c>
       <c r="E66">
-        <v>50</v>
+        <v>69.680000000000007</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="B67" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="C67" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D67">
         <v>2030</v>
       </c>
       <c r="E67">
-        <v>230</v>
+        <v>165.8</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="B68" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C68" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D68">
         <v>2030</v>
       </c>
       <c r="E68">
-        <v>5968.29</v>
+        <v>6150.2280000000001</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="B69" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C69" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D69">
         <v>2030</v>
       </c>
       <c r="E69">
-        <v>1183.9839999999999</v>
+        <v>2722.4</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="B70" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C70" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D70">
         <v>2030</v>
       </c>
       <c r="E70">
-        <v>3206.4639999999999</v>
+        <v>12859.47</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="B71" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="C71" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D71">
         <v>2030</v>
       </c>
       <c r="E71">
-        <v>59.82</v>
+        <v>7.26</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="B72" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C72" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D72">
         <v>2030</v>
       </c>
       <c r="E72">
-        <v>75.8</v>
+        <v>778.06</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="B73" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="C73" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D73">
         <v>2030</v>
       </c>
       <c r="E73">
-        <v>2424.5749999999998</v>
+        <v>129.565</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="B74" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="C74" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D74">
         <v>2030</v>
       </c>
       <c r="E74">
-        <v>1000</v>
+        <v>160</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="B75" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="C75" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D75">
         <v>2030</v>
       </c>
       <c r="E75">
-        <v>20</v>
+        <v>160</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="B76" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C76" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D76">
         <v>2030</v>
       </c>
       <c r="E76">
-        <v>2037.546</v>
+        <v>3587</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="B77" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C77" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D77">
         <v>2030</v>
       </c>
       <c r="E77">
-        <v>726.91099999999994</v>
+        <v>1392.133</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="B78" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C78" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D78">
         <v>2030</v>
       </c>
       <c r="E78">
-        <v>4754.0810000000001</v>
+        <v>250</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="B79" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="C79" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D79">
         <v>2030</v>
       </c>
       <c r="E79">
-        <v>1.98</v>
+        <v>173</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="B80" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="C80" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D80">
         <v>2030</v>
       </c>
       <c r="E80">
-        <v>1.98</v>
+        <v>861</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="B81" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="C81" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D81">
         <v>2030</v>
       </c>
       <c r="E81">
-        <v>1108.0899999999999</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="B82" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C82" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D82">
         <v>2030</v>
       </c>
       <c r="E82">
-        <v>195</v>
+        <v>167.65</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="B83" t="s">
         <v>23</v>
       </c>
       <c r="C83" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D83">
         <v>2030</v>
       </c>
       <c r="E83">
-        <v>1562.6130000000001</v>
+        <v>134.952</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="B84" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="C84" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D84">
         <v>2030</v>
       </c>
       <c r="E84">
-        <v>109.68</v>
+        <v>657.99900000000002</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="B85" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="C85" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D85">
         <v>2030</v>
       </c>
       <c r="E85">
-        <v>945.08699999999999</v>
+        <v>198</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="B86" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="C86" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D86">
         <v>2030</v>
       </c>
       <c r="E86">
-        <v>53.6</v>
+        <v>5100.3599999999997</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
+        <v>47</v>
+      </c>
+      <c r="B87" t="s">
         <v>35</v>
       </c>
-      <c r="B87" t="s">
-        <v>8</v>
-      </c>
       <c r="C87" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D87">
         <v>2030</v>
       </c>
       <c r="E87">
-        <v>460.41399999999999</v>
+        <v>24498</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="B88" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C88" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D88">
         <v>2030</v>
       </c>
       <c r="E88">
-        <v>1620.404</v>
+        <v>3424.6660000000002</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="B89" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="C89" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D89">
         <v>2030</v>
       </c>
       <c r="E89">
-        <v>43.298999999999999</v>
+        <v>11414.19</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="B90" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="C90" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D90">
         <v>2030</v>
       </c>
       <c r="E90">
-        <v>2355.79</v>
+        <v>4223.32</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="B91" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="C91" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D91">
         <v>2030</v>
       </c>
       <c r="E91">
-        <v>1658.6</v>
+        <v>3964.0059999999999</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="B92" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="C92" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D92">
         <v>2030</v>
       </c>
       <c r="E92">
-        <v>18452.862000000001</v>
+        <v>5304.4849999999997</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="B93" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="C93" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D93">
         <v>2030</v>
       </c>
       <c r="E93">
-        <v>1585.3389999999999</v>
+        <v>5204.59</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="B94" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="C94" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D94">
         <v>2030</v>
       </c>
       <c r="E94">
-        <v>3933.9</v>
+        <v>55617.493999999999</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="B95" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C95" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D95">
         <v>2030</v>
       </c>
       <c r="E95">
-        <v>819</v>
+        <v>2800</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="B96" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="C96" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D96">
         <v>2030</v>
       </c>
       <c r="E96">
-        <v>2144.1</v>
+        <v>73548.126999999993</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="B97" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="C97" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D97">
         <v>2030</v>
       </c>
       <c r="E97">
-        <v>1861</v>
+        <v>3800</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="B98" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="C98" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D98">
         <v>2030</v>
       </c>
       <c r="E98">
-        <v>7009.84</v>
+        <v>1730</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="B99" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="C99" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D99">
         <v>2030</v>
       </c>
       <c r="E99">
-        <v>7166.6</v>
+        <v>3980.011</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="B100" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="C100" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D100">
         <v>2030</v>
       </c>
       <c r="E100">
-        <v>115000.7</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="B101" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="C101" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D101">
         <v>2030</v>
       </c>
       <c r="E101">
-        <v>30521.3</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="B102" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="C102" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D102">
         <v>2030</v>
       </c>
       <c r="E102">
-        <v>215002</v>
+        <v>10881</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="B103" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="C103" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D103">
         <v>2030</v>
       </c>
       <c r="E103">
-        <v>13067.585999999999</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="B104" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C104" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D104">
         <v>2030</v>
       </c>
       <c r="E104">
-        <v>7280.02</v>
+        <v>4394</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="B105" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="C105" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D105">
         <v>2030</v>
       </c>
       <c r="E105">
-        <v>3200.4</v>
+        <v>640</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="B106" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C106" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D106">
         <v>2030</v>
       </c>
       <c r="E106">
-        <v>3200.4</v>
+        <v>45</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="B107" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="C107" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D107">
         <v>2030</v>
       </c>
       <c r="E107">
-        <v>12789</v>
+        <v>38</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="B108" t="s">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="C108" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D108">
         <v>2030</v>
       </c>
       <c r="E108">
-        <v>8826.1139999999996</v>
+        <v>87</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
+        <v>49</v>
+      </c>
+      <c r="B109" t="s">
         <v>35</v>
       </c>
-      <c r="B109" t="s">
-        <v>23</v>
-      </c>
       <c r="C109" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D109">
         <v>2030</v>
       </c>
       <c r="E109">
-        <v>23799.8</v>
+        <v>234</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="B110" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="C110" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D110">
         <v>2030</v>
       </c>
       <c r="E110">
-        <v>29901.759999999998</v>
+        <v>3236.6080000000002</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B111" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C111" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D111">
         <v>2030</v>
       </c>
       <c r="E111">
-        <v>57.752000000000002</v>
+        <v>25992.471000000001</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B112" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C112" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D112">
         <v>2030</v>
       </c>
       <c r="E112">
-        <v>103.084</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B113" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="C113" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D113">
         <v>2030</v>
       </c>
       <c r="E113">
-        <v>71.959999999999994</v>
+        <v>10695.187</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B114" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="C114" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D114">
         <v>2030</v>
       </c>
       <c r="E114">
-        <v>531</v>
+        <v>2624.82</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B115" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="C115" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D115">
         <v>2030</v>
       </c>
       <c r="E115">
-        <v>65.099999999999994</v>
+        <v>390.5</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B116" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="C116" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D116">
         <v>2030</v>
       </c>
       <c r="E116">
-        <v>1155.384</v>
+        <v>1195.998</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B117" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="C117" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D117">
         <v>2030</v>
       </c>
       <c r="E117">
-        <v>5528.2</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B118" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="C118" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D118">
         <v>2030</v>
       </c>
       <c r="E118">
-        <v>4884.9399999999996</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B119" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="C119" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D119">
         <v>2030</v>
       </c>
       <c r="E119">
-        <v>1165.52</v>
+        <v>8727.2729999999992</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B120" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="C120" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D120">
         <v>2030</v>
       </c>
       <c r="E120">
-        <v>54.555</v>
+        <v>4640.8320000000003</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B121" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="C121" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D121">
         <v>2030</v>
       </c>
       <c r="E121">
-        <v>1287</v>
+        <v>319.77499999999998</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B122" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="C122" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D122">
         <v>2030</v>
       </c>
       <c r="E122">
-        <v>893.73099999999999</v>
+        <v>61760.982000000004</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B123" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="C123" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D123">
         <v>2030</v>
       </c>
       <c r="E123">
-        <v>111.706</v>
+        <v>414</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B124" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C124" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D124">
         <v>2030</v>
       </c>
       <c r="E124">
-        <v>375.42</v>
+        <v>199</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B125" t="s">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="C125" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D125">
         <v>2030</v>
       </c>
       <c r="E125">
-        <v>47.2</v>
+        <v>437.00099999999998</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B126" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="C126" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D126">
         <v>2030</v>
       </c>
       <c r="E126">
-        <v>54.3</v>
+        <v>792</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B127" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C127" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D127">
         <v>2030</v>
       </c>
       <c r="E127">
-        <v>448.18200000000002</v>
+        <v>5346.9960000000001</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B128" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="C128" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D128">
         <v>2030</v>
       </c>
       <c r="E128">
-        <v>69.680000000000007</v>
+        <v>1254.998</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B129" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="C129" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D129">
         <v>2030</v>
       </c>
       <c r="E129">
-        <v>165.8</v>
+        <v>13614</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B130" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="C130" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D130">
         <v>2030</v>
       </c>
       <c r="E130">
-        <v>6150.2280000000001</v>
+        <v>10029</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B131" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="C131" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D131">
         <v>2030</v>
       </c>
       <c r="E131">
-        <v>2722.4</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B132" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="C132" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D132">
         <v>2030</v>
       </c>
       <c r="E132">
-        <v>12859.47</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B133" t="s">
         <v>17</v>
       </c>
       <c r="C133" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D133">
         <v>2030</v>
       </c>
       <c r="E133">
-        <v>7.26</v>
+        <v>1950</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B134" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C134" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D134">
         <v>2030</v>
       </c>
       <c r="E134">
-        <v>778.06</v>
+        <v>1950</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B135" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="C135" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D135">
         <v>2030</v>
       </c>
       <c r="E135">
-        <v>129.565</v>
+        <v>31328.799999999999</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B136" t="s">
         <v>20</v>
       </c>
       <c r="C136" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D136">
         <v>2030</v>
       </c>
       <c r="E136">
-        <v>160</v>
+        <v>3875</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B137" t="s">
         <v>21</v>
       </c>
       <c r="C137" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D137">
         <v>2030</v>
       </c>
       <c r="E137">
-        <v>160</v>
+        <v>42622.19</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B138" t="s">
         <v>22</v>
       </c>
       <c r="C138" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D138">
         <v>2030</v>
       </c>
       <c r="E138">
-        <v>3587</v>
+        <v>2426</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B139" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C139" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D139">
         <v>2030</v>
       </c>
       <c r="E139">
-        <v>1392.133</v>
+        <v>4400</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B140" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="C140" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D140">
         <v>2030</v>
       </c>
       <c r="E140">
-        <v>4696.0050000000001</v>
+        <v>470</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B141" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="C141" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D141">
         <v>2030</v>
       </c>
       <c r="E141">
-        <v>1824</v>
+        <v>470</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B142" t="s">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="C142" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D142">
         <v>2030</v>
       </c>
       <c r="E142">
-        <v>5466.5709999999999</v>
+        <v>4176</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B143" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="C143" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D143">
         <v>2030</v>
       </c>
       <c r="E143">
-        <v>1872.12</v>
+        <v>5000.8999999999996</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B144" t="s">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="C144" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D144">
         <v>2030</v>
       </c>
       <c r="E144">
-        <v>1663</v>
+        <v>110</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B145" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C145" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D145">
         <v>2030</v>
       </c>
       <c r="E145">
-        <v>9620.7150000000001</v>
+        <v>510</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B146" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="C146" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D146">
         <v>2030</v>
       </c>
       <c r="E146">
-        <v>367.31</v>
+        <v>402.99900000000002</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B147" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C147" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D147">
         <v>2030</v>
       </c>
       <c r="E147">
-        <v>427.48</v>
+        <v>126.2</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B148" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="C148" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D148">
         <v>2030</v>
       </c>
       <c r="E148">
-        <v>216.26</v>
+        <v>938</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B149" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="C149" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D149">
         <v>2030</v>
       </c>
       <c r="E149">
-        <v>172</v>
+        <v>900</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B150" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="C150" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D150">
         <v>2030</v>
       </c>
       <c r="E150">
-        <v>1333.35</v>
+        <v>5000.0200000000004</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B151" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="C151" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D151">
         <v>2030</v>
       </c>
       <c r="E151">
-        <v>1486</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B152" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="C152" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D152">
         <v>2030</v>
       </c>
       <c r="E152">
-        <v>13767.84</v>
+        <v>5000.3</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B153" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C153" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D153">
         <v>2030</v>
       </c>
       <c r="E153">
-        <v>10004</v>
+        <v>209.89</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B154" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C154" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D154">
         <v>2030</v>
       </c>
       <c r="E154">
-        <v>21663.41</v>
+        <v>106.89</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B155" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="C155" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D155">
         <v>2030</v>
       </c>
       <c r="E155">
-        <v>2155.0540000000001</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B156" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="C156" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D156">
         <v>2030</v>
       </c>
       <c r="E156">
-        <v>5614.3209999999999</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B157" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="C157" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D157">
         <v>2030</v>
       </c>
       <c r="E157">
-        <v>3305.5059999999999</v>
+        <v>300</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B158" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C158" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D158">
         <v>2030</v>
       </c>
       <c r="E158">
-        <v>2000</v>
+        <v>40</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B159" t="s">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="C159" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D159">
         <v>2030</v>
       </c>
       <c r="E159">
-        <v>100</v>
+        <v>1004.003</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B160" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="C160" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D160">
         <v>2030</v>
       </c>
       <c r="E160">
-        <v>250</v>
+        <v>73</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B161" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C161" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D161">
         <v>2030</v>
       </c>
       <c r="E161">
-        <v>173</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B162" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C162" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D162">
         <v>2030</v>
       </c>
       <c r="E162">
-        <v>861</v>
+        <v>237</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B163" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C163" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D163">
         <v>2030</v>
       </c>
       <c r="E163">
-        <v>1160</v>
+        <v>500</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B164" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C164" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D164">
         <v>2030</v>
       </c>
       <c r="E164">
-        <v>167.65</v>
+        <v>146.03</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B165" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="C165" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D165">
         <v>2030</v>
       </c>
       <c r="E165">
-        <v>134.952</v>
+        <v>70</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B166" t="s">
-        <v>56</v>
+        <v>22</v>
       </c>
       <c r="C166" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D166">
         <v>2030</v>
       </c>
       <c r="E166">
-        <v>657.99900000000002</v>
+        <v>159.018</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B167" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C167" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D167">
         <v>2030</v>
       </c>
       <c r="E167">
-        <v>198</v>
+        <v>80</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B168" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="C168" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D168">
         <v>2030</v>
       </c>
       <c r="E168">
-        <v>1004.003</v>
+        <v>80</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B169" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="C169" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D169">
         <v>2030</v>
       </c>
       <c r="E169">
-        <v>73</v>
+        <v>150</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B170" t="s">
-        <v>58</v>
+        <v>9</v>
       </c>
       <c r="C170" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D170">
         <v>2030</v>
       </c>
       <c r="E170">
-        <v>1592</v>
+        <v>486</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B171" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="C171" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D171">
         <v>2030</v>
       </c>
       <c r="E171">
-        <v>237</v>
+        <v>2536.5059999999999</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B172" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="C172" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D172">
         <v>2030</v>
       </c>
       <c r="E172">
-        <v>500</v>
+        <v>165</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B173" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C173" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D173">
         <v>2030</v>
       </c>
       <c r="E173">
-        <v>146.03</v>
+        <v>314</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B174" t="s">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="C174" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D174">
         <v>2030</v>
       </c>
       <c r="E174">
-        <v>70</v>
+        <v>7083.0060000000003</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B175" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C175" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D175">
         <v>2030</v>
       </c>
       <c r="E175">
-        <v>159.018</v>
+        <v>37</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B176" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C176" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D176">
         <v>2030</v>
       </c>
       <c r="E176">
-        <v>80</v>
+        <v>9100.0499999999993</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B177" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C177" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D177">
         <v>2030</v>
       </c>
       <c r="E177">
-        <v>80</v>
+        <v>16542.5</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B178" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C178" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D178">
         <v>2030</v>
       </c>
       <c r="E178">
-        <v>150</v>
+        <v>59317.088000000003</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="B179" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="C179" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D179">
         <v>2030</v>
       </c>
       <c r="E179">
-        <v>110</v>
+        <v>415</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="B180" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="C180" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D180">
         <v>2030</v>
       </c>
       <c r="E180">
-        <v>510</v>
+        <v>4381.5</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="B181" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="C181" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D181">
         <v>2030</v>
       </c>
       <c r="E181">
-        <v>402.99900000000002</v>
+        <v>9331</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="B182" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C182" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D182">
         <v>2030</v>
       </c>
       <c r="E182">
-        <v>126.2</v>
+        <v>9331</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="B183" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="C183" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D183">
         <v>2030</v>
       </c>
       <c r="E183">
-        <v>938</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="B184" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C184" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D184">
         <v>2030</v>
       </c>
       <c r="E184">
-        <v>900</v>
+        <v>1855</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="B185" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="C185" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D185">
         <v>2030</v>
       </c>
       <c r="E185">
-        <v>5000.0200000000004</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B186" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C186" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D186">
         <v>2030</v>
       </c>
       <c r="E186">
-        <v>1400</v>
+        <v>1183.9839999999999</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B187" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="C187" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D187">
         <v>2030</v>
       </c>
       <c r="E187">
-        <v>5000.3</v>
+        <v>3206.4639999999999</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B188" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="C188" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D188">
         <v>2030</v>
       </c>
       <c r="E188">
-        <v>209.89</v>
+        <v>59.82</v>
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B189" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="C189" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D189">
         <v>2030</v>
       </c>
       <c r="E189">
-        <v>106.89</v>
+        <v>75.8</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B190" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C190" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D190">
         <v>2030</v>
       </c>
       <c r="E190">
-        <v>1200</v>
+        <v>2424.5749999999998</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B191" t="s">
         <v>21</v>
       </c>
       <c r="C191" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D191">
         <v>2030</v>
       </c>
       <c r="E191">
-        <v>1200</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B192" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C192" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D192">
         <v>2030</v>
       </c>
       <c r="E192">
-        <v>300</v>
+        <v>20</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B193" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C193" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D193">
         <v>2030</v>
       </c>
       <c r="E193">
-        <v>40</v>
+        <v>2037.546</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B194" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="C194" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D194">
         <v>2030</v>
       </c>
       <c r="E194">
-        <v>486</v>
+        <v>726.91099999999994</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B195" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="C195" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D195">
         <v>2030</v>
       </c>
       <c r="E195">
-        <v>2536.5059999999999</v>
+        <v>4754.0810000000001</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B196" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="C196" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D196">
         <v>2030</v>
       </c>
       <c r="E196">
-        <v>165</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B197" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="C197" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D197">
         <v>2030</v>
       </c>
       <c r="E197">
-        <v>314</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B198" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="C198" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D198">
         <v>2030</v>
       </c>
       <c r="E198">
-        <v>7083.0060000000003</v>
+        <v>1108.0899999999999</v>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B199" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C199" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D199">
         <v>2030</v>
       </c>
       <c r="E199">
-        <v>37</v>
+        <v>195</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B200" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="C200" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D200">
         <v>2030</v>
       </c>
       <c r="E200">
-        <v>9100.0499999999993</v>
+        <v>1562.6130000000001</v>
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B201" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C201" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D201">
         <v>2030</v>
       </c>
       <c r="E201">
-        <v>16542.5</v>
+        <v>5557.049</v>
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B202" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="C202" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D202">
         <v>2030</v>
       </c>
       <c r="E202">
-        <v>59317.088000000003</v>
+        <v>19689.398000000001</v>
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B203" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="C203" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D203">
         <v>2030</v>
       </c>
       <c r="E203">
-        <v>415</v>
+        <v>649.5</v>
       </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B204" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="C204" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D204">
         <v>2030</v>
       </c>
       <c r="E204">
-        <v>4381.5</v>
+        <v>682.00800000000004</v>
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B205" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C205" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D205">
         <v>2030</v>
       </c>
       <c r="E205">
-        <v>9331</v>
+        <v>2240.56</v>
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B206" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C206" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D206">
         <v>2030</v>
       </c>
       <c r="E206">
-        <v>9331</v>
+        <v>3003.5</v>
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B207" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C207" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D207">
         <v>2030</v>
       </c>
       <c r="E207">
-        <v>4000</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B208" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="C208" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D208">
         <v>2030</v>
       </c>
       <c r="E208">
-        <v>1855</v>
+        <v>50</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B209" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C209" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D209">
         <v>2030</v>
       </c>
       <c r="E209">
-        <v>1687</v>
+        <v>230</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B210" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="C210" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D210">
         <v>2030</v>
       </c>
       <c r="E210">
-        <v>61760.982000000004</v>
+        <v>5968.29</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B211" t="s">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="C211" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D211">
         <v>2030</v>
       </c>
       <c r="E211">
-        <v>414</v>
+        <v>4696.0050000000001</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B212" t="s">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="C212" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D212">
         <v>2030</v>
       </c>
       <c r="E212">
-        <v>199</v>
+        <v>1824</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B213" t="s">
-        <v>11</v>
+        <v>61</v>
       </c>
       <c r="C213" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D213">
         <v>2030</v>
       </c>
       <c r="E213">
-        <v>437.00099999999998</v>
+        <v>5466.5709999999999</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
+        <v>58</v>
+      </c>
+      <c r="B214" t="s">
         <v>62</v>
       </c>
-      <c r="B214" t="s">
-        <v>12</v>
-      </c>
       <c r="C214" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D214">
         <v>2030</v>
       </c>
       <c r="E214">
-        <v>792</v>
+        <v>1872.12</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B215" t="s">
-        <v>39</v>
+        <v>63</v>
       </c>
       <c r="C215" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D215">
         <v>2030</v>
       </c>
       <c r="E215">
-        <v>5346.9960000000001</v>
+        <v>1663</v>
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B216" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="C216" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D216">
         <v>2030</v>
       </c>
       <c r="E216">
-        <v>1254.998</v>
+        <v>9620.7150000000001</v>
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B217" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="C217" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D217">
         <v>2030</v>
       </c>
       <c r="E217">
-        <v>13614</v>
+        <v>367.31</v>
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B218" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="C218" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D218">
         <v>2030</v>
       </c>
       <c r="E218">
-        <v>10029</v>
+        <v>427.48</v>
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B219" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="C219" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D219">
         <v>2030</v>
       </c>
       <c r="E219">
-        <v>1850</v>
+        <v>216.26</v>
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B220" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="C220" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D220">
         <v>2030</v>
       </c>
       <c r="E220">
-        <v>1850</v>
+        <v>172</v>
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B221" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="C221" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D221">
         <v>2030</v>
       </c>
       <c r="E221">
-        <v>1950</v>
+        <v>1333.35</v>
       </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B222" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="C222" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D222">
         <v>2030</v>
       </c>
       <c r="E222">
-        <v>1950</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B223" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C223" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D223">
         <v>2030</v>
       </c>
       <c r="E223">
-        <v>31328.799999999999</v>
+        <v>13767.84</v>
       </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B224" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C224" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D224">
         <v>2030</v>
       </c>
       <c r="E224">
-        <v>3875</v>
+        <v>10004</v>
       </c>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B225" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C225" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D225">
         <v>2030</v>
       </c>
       <c r="E225">
-        <v>42622.19</v>
+        <v>21663.41</v>
       </c>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B226" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C226" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D226">
         <v>2030</v>
       </c>
       <c r="E226">
-        <v>2426</v>
+        <v>2155.0540000000001</v>
       </c>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B227" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C227" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D227">
         <v>2030</v>
       </c>
       <c r="E227">
-        <v>4400</v>
+        <v>5614.3209999999999</v>
       </c>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B228" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C228" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D228">
         <v>2030</v>
       </c>
       <c r="E228">
-        <v>470</v>
+        <v>3305.5059999999999</v>
       </c>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B229" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C229" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D229">
         <v>2030</v>
       </c>
       <c r="E229">
-        <v>470</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B230" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="C230" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D230">
         <v>2030</v>
       </c>
       <c r="E230">
-        <v>4176</v>
+        <v>100</v>
       </c>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B231" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="C231" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D231">
         <v>2030</v>
       </c>
       <c r="E231">
-        <v>5000.8999999999996</v>
+        <v>97</v>
       </c>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B232" t="s">
-        <v>6</v>
+        <v>37</v>
       </c>
       <c r="C232" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D232">
         <v>2030</v>
       </c>
       <c r="E232">
-        <v>2077</v>
+        <v>5444</v>
       </c>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B233" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="C233" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D233">
         <v>2030</v>
       </c>
       <c r="E233">
-        <v>870.99800000000005</v>
+        <v>3580.5430000000001</v>
       </c>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B234" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="C234" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D234">
         <v>2030</v>
       </c>
       <c r="E234">
-        <v>1775</v>
+        <v>198.7</v>
       </c>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B235" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="C235" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D235">
         <v>2030</v>
       </c>
       <c r="E235">
-        <v>244</v>
+        <v>11.542999999999999</v>
       </c>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B236" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="C236" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D236">
         <v>2030</v>
       </c>
       <c r="E236">
-        <v>1732.1</v>
+        <v>11.542999999999999</v>
       </c>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B237" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="C237" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D237">
         <v>2030</v>
       </c>
       <c r="E237">
-        <v>140</v>
+        <v>6451.3090000000002</v>
       </c>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B238" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C238" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D238">
         <v>2030</v>
       </c>
       <c r="E238">
-        <v>148.202</v>
+        <v>214.2</v>
       </c>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B239" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="C239" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D239">
         <v>2030</v>
       </c>
       <c r="E239">
-        <v>1305</v>
+        <v>22.568000000000001</v>
       </c>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B240" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C240" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D240">
         <v>2030</v>
       </c>
       <c r="E240">
-        <v>1226.76</v>
+        <v>7650.1</v>
       </c>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B241" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C241" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D241">
         <v>2030</v>
       </c>
       <c r="E241">
-        <v>5248</v>
+        <v>8280.4480000000003</v>
       </c>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B242" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C242" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D242">
         <v>2030</v>
       </c>
       <c r="E242">
-        <v>5760</v>
+        <v>333.88600000000002</v>
       </c>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B243" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C243" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D243">
         <v>2030</v>
       </c>
       <c r="E243">
-        <v>13610</v>
+        <v>743.57</v>
       </c>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B244" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="C244" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D244">
         <v>2030</v>
       </c>
       <c r="E244">
-        <v>614.625</v>
+        <v>11.13</v>
       </c>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B245" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="C245" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D245">
         <v>2030</v>
       </c>
       <c r="E245">
-        <v>1594</v>
+        <v>11.13</v>
       </c>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B246" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="C246" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D246">
         <v>2030</v>
       </c>
       <c r="E246">
-        <v>354.4</v>
+        <v>40.798000000000002</v>
       </c>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B247" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="C247" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D247">
         <v>2030</v>
       </c>
       <c r="E247">
-        <v>594.35799999999995</v>
+        <v>323.39999999999998</v>
       </c>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B248" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="C248" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D248">
         <v>2030</v>
       </c>
       <c r="E248">
-        <v>594.35799999999995</v>
+        <v>45.892000000000003</v>
       </c>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B249" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="C249" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D249">
         <v>2030</v>
       </c>
       <c r="E249">
-        <v>373</v>
+        <v>6883</v>
       </c>
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B250" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="C250" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D250">
         <v>2030</v>
       </c>
       <c r="E250">
-        <v>2829.6610000000001</v>
+        <v>54</v>
       </c>
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B251" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="C251" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D251">
         <v>2030</v>
       </c>
       <c r="E251">
-        <v>41.613999999999997</v>
+        <v>2286</v>
       </c>
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B252" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="C252" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D252">
         <v>2030</v>
       </c>
       <c r="E252">
-        <v>5510.0010000000002</v>
+        <v>3868.223</v>
       </c>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B253" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="C253" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D253">
         <v>2030</v>
       </c>
       <c r="E253">
-        <v>2448.7399999999998</v>
+        <v>4851.692</v>
       </c>
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B254" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="C254" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D254">
         <v>2030</v>
       </c>
       <c r="E254">
-        <v>5062.1400000000003</v>
+        <v>2818.0549999999998</v>
       </c>
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B255" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="C255" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D255">
         <v>2030</v>
       </c>
       <c r="E255">
-        <v>539.00099999999998</v>
+        <v>161.72300000000001</v>
       </c>
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B256" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="C256" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D256">
         <v>2030</v>
       </c>
       <c r="E256">
-        <v>1029.999</v>
+        <v>161.72300000000001</v>
       </c>
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B257" t="s">
-        <v>65</v>
+        <v>27</v>
       </c>
       <c r="C257" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D257">
         <v>2030</v>
       </c>
       <c r="E257">
-        <v>3270</v>
+        <v>133.96700000000001</v>
       </c>
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B258" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="C258" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D258">
         <v>2030</v>
       </c>
       <c r="E258">
-        <v>2456.89</v>
+        <v>936.6</v>
       </c>
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B259" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="C259" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D259">
         <v>2030</v>
       </c>
       <c r="E259">
-        <v>21988.455000000002</v>
+        <v>31.670999999999999</v>
       </c>
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B260" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C260" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D260">
         <v>2030</v>
       </c>
       <c r="E260">
-        <v>408</v>
+        <v>237.1</v>
       </c>
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B261" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="C261" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D261">
         <v>2030</v>
       </c>
       <c r="E261">
-        <v>389</v>
+        <v>2222.9389999999999</v>
       </c>
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B262" t="s">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="C262" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D262">
         <v>2030</v>
       </c>
       <c r="E262">
-        <v>204.66</v>
+        <v>600</v>
       </c>
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B263" t="s">
-        <v>66</v>
+        <v>21</v>
       </c>
       <c r="C263" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D263">
         <v>2030</v>
       </c>
       <c r="E263">
-        <v>70.8</v>
+        <v>2116.1889999999999</v>
       </c>
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B264" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C264" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D264">
         <v>2030</v>
       </c>
       <c r="E264">
-        <v>2219.471</v>
+        <v>698.09</v>
       </c>
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B265" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="C265" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D265">
         <v>2030</v>
       </c>
       <c r="E265">
-        <v>2744</v>
+        <v>70.540000000000006</v>
       </c>
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B266" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="C266" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D266">
         <v>2030</v>
       </c>
       <c r="E266">
-        <v>2684</v>
+        <v>70.540000000000006</v>
       </c>
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B267" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="C267" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D267">
         <v>2030</v>
       </c>
       <c r="E267">
-        <v>32199.174999999999</v>
+        <v>40.591999999999999</v>
       </c>
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B268" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="C268" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D268">
         <v>2030</v>
       </c>
       <c r="E268">
-        <v>52467.47</v>
+        <v>264.60000000000002</v>
       </c>
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B269" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="C269" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D269">
         <v>2030</v>
       </c>
       <c r="E269">
-        <v>35042.421999999999</v>
+        <v>129.38999999999999</v>
       </c>
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B270" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C270" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D270">
         <v>2030</v>
       </c>
       <c r="E270">
-        <v>2906.1660000000002</v>
+        <v>5510.0010000000002</v>
       </c>
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B271" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="C271" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D271">
         <v>2030</v>
       </c>
       <c r="E271">
-        <v>8657.1929999999993</v>
+        <v>2448.7399999999998</v>
       </c>
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B272" t="s">
-        <v>67</v>
+        <v>11</v>
       </c>
       <c r="C272" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D272">
         <v>2030</v>
       </c>
       <c r="E272">
-        <v>18</v>
+        <v>5062.1400000000003</v>
       </c>
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B273" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="C273" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D273">
         <v>2030</v>
       </c>
       <c r="E273">
-        <v>15506.541999999999</v>
+        <v>539.00099999999998</v>
       </c>
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B274" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C274" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D274">
         <v>2030</v>
       </c>
       <c r="E274">
-        <v>15506.541999999999</v>
+        <v>1029.999</v>
       </c>
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B275" t="s">
-        <v>22</v>
+        <v>69</v>
       </c>
       <c r="C275" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D275">
         <v>2030</v>
       </c>
       <c r="E275">
-        <v>8017.5810000000001</v>
+        <v>3270</v>
       </c>
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B276" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="C276" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D276">
         <v>2030</v>
       </c>
       <c r="E276">
-        <v>7438.915</v>
+        <v>2456.89</v>
       </c>
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B277" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="C277" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D277">
         <v>2030</v>
       </c>
       <c r="E277">
-        <v>4047.0520000000001</v>
+        <v>21988.455000000002</v>
       </c>
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.25">
@@ -5334,16 +5413,16 @@
         <v>68</v>
       </c>
       <c r="B278" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C278" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D278">
         <v>2030</v>
       </c>
       <c r="E278">
-        <v>5100.3599999999997</v>
+        <v>408</v>
       </c>
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.25">
@@ -5351,16 +5430,16 @@
         <v>68</v>
       </c>
       <c r="B279" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="C279" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D279">
         <v>2030</v>
       </c>
       <c r="E279">
-        <v>24498</v>
+        <v>389</v>
       </c>
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.25">
@@ -5368,16 +5447,16 @@
         <v>68</v>
       </c>
       <c r="B280" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="C280" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D280">
         <v>2030</v>
       </c>
       <c r="E280">
-        <v>3424.6660000000002</v>
+        <v>204.66</v>
       </c>
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.25">
@@ -5385,16 +5464,16 @@
         <v>68</v>
       </c>
       <c r="B281" t="s">
-        <v>13</v>
+        <v>70</v>
       </c>
       <c r="C281" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D281">
         <v>2030</v>
       </c>
       <c r="E281">
-        <v>11414.19</v>
+        <v>70.8</v>
       </c>
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.25">
@@ -5402,16 +5481,16 @@
         <v>68</v>
       </c>
       <c r="B282" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="C282" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D282">
         <v>2030</v>
       </c>
       <c r="E282">
-        <v>4223.32</v>
+        <v>2219.471</v>
       </c>
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.25">
@@ -5419,16 +5498,16 @@
         <v>68</v>
       </c>
       <c r="B283" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="C283" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D283">
         <v>2030</v>
       </c>
       <c r="E283">
-        <v>3964.0059999999999</v>
+        <v>2744</v>
       </c>
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.25">
@@ -5436,16 +5515,16 @@
         <v>68</v>
       </c>
       <c r="B284" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="C284" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D284">
         <v>2030</v>
       </c>
       <c r="E284">
-        <v>5304.4849999999997</v>
+        <v>2684</v>
       </c>
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.25">
@@ -5453,16 +5532,16 @@
         <v>68</v>
       </c>
       <c r="B285" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="C285" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D285">
         <v>2030</v>
       </c>
       <c r="E285">
-        <v>5204.59</v>
+        <v>32199.174999999999</v>
       </c>
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.25">
@@ -5470,16 +5549,16 @@
         <v>68</v>
       </c>
       <c r="B286" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C286" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D286">
         <v>2030</v>
       </c>
       <c r="E286">
-        <v>55617.493999999999</v>
+        <v>52467.47</v>
       </c>
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.25">
@@ -5487,16 +5566,16 @@
         <v>68</v>
       </c>
       <c r="B287" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C287" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D287">
         <v>2030</v>
       </c>
       <c r="E287">
-        <v>2800</v>
+        <v>35042.421999999999</v>
       </c>
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.25">
@@ -5504,16 +5583,16 @@
         <v>68</v>
       </c>
       <c r="B288" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C288" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D288">
         <v>2030</v>
       </c>
       <c r="E288">
-        <v>73548.126999999993</v>
+        <v>2906.1660000000002</v>
       </c>
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.25">
@@ -5521,16 +5600,16 @@
         <v>68</v>
       </c>
       <c r="B289" t="s">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="C289" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D289">
         <v>2030</v>
       </c>
       <c r="E289">
-        <v>3800</v>
+        <v>8657.1929999999993</v>
       </c>
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.25">
@@ -5538,16 +5617,16 @@
         <v>68</v>
       </c>
       <c r="B290" t="s">
-        <v>17</v>
+        <v>71</v>
       </c>
       <c r="C290" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D290">
         <v>2030</v>
       </c>
       <c r="E290">
-        <v>1730</v>
+        <v>18</v>
       </c>
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.25">
@@ -5555,16 +5634,16 @@
         <v>68</v>
       </c>
       <c r="B291" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C291" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D291">
         <v>2030</v>
       </c>
       <c r="E291">
-        <v>3980.011</v>
+        <v>15506.541999999999</v>
       </c>
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.25">
@@ -5572,16 +5651,16 @@
         <v>68</v>
       </c>
       <c r="B292" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C292" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D292">
         <v>2030</v>
       </c>
       <c r="E292">
-        <v>2500</v>
+        <v>15506.541999999999</v>
       </c>
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.25">
@@ -5589,16 +5668,16 @@
         <v>68</v>
       </c>
       <c r="B293" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C293" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D293">
         <v>2030</v>
       </c>
       <c r="E293">
-        <v>2500</v>
+        <v>8017.5810000000001</v>
       </c>
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.25">
@@ -5606,16 +5685,16 @@
         <v>68</v>
       </c>
       <c r="B294" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C294" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D294">
         <v>2030</v>
       </c>
       <c r="E294">
-        <v>10881</v>
+        <v>7438.915</v>
       </c>
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.25">
@@ -5623,20 +5702,22 @@
         <v>68</v>
       </c>
       <c r="B295" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C295" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D295">
         <v>2030</v>
       </c>
       <c r="E295">
-        <v>1000</v>
+        <v>4047.0520000000001</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/src_files/data_files/unitdata_TYNDP-2024.xlsx
+++ b/src_files/data_files/unitdata_TYNDP-2024.xlsx
@@ -5,15 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vttgroup-my.sharepoint.com/personal/eric_harrison_vtt_fi1/Documents/oma_tutkimus_backupit/balticseah2_backups/MMStandardOutputFile_NT2030_Plexos_CY2009_2.5_v40.xlsx/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ehjeric\git_backbone\balticseah2\backbone_250414\north_european_model\src_files\data_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="11_52B913A5D3705709F71A3211595ED87656CC7950" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0A6E9151-F92C-4A69-96AE-798DFDF40570}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FEBA5CE-9217-4184-85B1-710348C1628B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="unitdata" sheetId="1" r:id="rId1"/>
+    <sheet name="Source" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="890" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="79">
   <si>
     <t>Country</t>
   </si>
@@ -249,13 +250,34 @@
   </si>
   <si>
     <t>Lignite biofuel</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>MMStandardOutputFile_NT2030_Plexos_CY2009_2.5_v40.xlsx</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Download date</t>
+  </si>
+  <si>
+    <t>Available at</t>
+  </si>
+  <si>
+    <t>Download | ENTSOs TYNDP 2024 Scenarios</t>
+  </si>
+  <si>
+    <t>"Yearly outputs" sheet: Installed Capacities [MW]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -267,6 +289,14 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -299,19 +329,37 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="3">
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -340,20 +388,6 @@
         <bottom/>
       </border>
     </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-      </border>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -367,12 +401,8 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0AA51971-E4A6-4CB2-819C-489FDB472AEE}" name="Table1" displayName="Table1" ref="A1:H295" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="1" tableBorderDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0AA51971-E4A6-4CB2-819C-489FDB472AEE}" name="Table1" displayName="Table1" ref="A1:H295" totalsRowShown="0" headerRowDxfId="2" headerRowBorderDxfId="1" tableBorderDxfId="0">
   <autoFilter ref="A1:H295" xr:uid="{0AA51971-E4A6-4CB2-819C-489FDB472AEE}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{CB24FD4E-C9A6-431C-9BAE-D980FCC8D4B4}" name="Country"/>
@@ -676,7 +706,7 @@
   <dimension ref="A1:H295"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5720,4 +5750,58 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21E95D54-C426-48EA-B00E-41F6FB43AA46}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B3" s="2">
+        <v>45771</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B4" r:id="rId1" display="https://2024.entsos-tyndp-scenarios.eu/download/" xr:uid="{D7B5FECC-310E-48EB-B554-A6E83E500C6D}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>